--- a/testNadz/1.Mobile_Android/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_Android.xlsx
+++ b/testNadz/1.Mobile_Android/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_Android.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Gmail_SignUp_KYC_Individual" sheetId="1" r:id="rId1"/>
+    <sheet name="Email_SignUp_KYC_Company" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -424,22 +424,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Android_Gmail_SignUp_KYC_Individual</v>
+        <v>Android_SignUp_KYC_Email_Company</v>
       </c>
       <c r="B2" t="str">
-        <v>TC002</v>
+        <v>TC004</v>
       </c>
       <c r="C2" t="str">
-        <v>Android_Gmail_Individual_SignUp_KYC_HappyFlow</v>
+        <v>Android_SignUp_Company_Email_KYC_HappyFlow</v>
       </c>
       <c r="D2" t="str">
-        <v>7/15/2025, 9:57:05 PM</v>
+        <v>7/16/2025, 1:02:19 PM</v>
       </c>
       <c r="E2" t="str">
         <v>PASS</v>
       </c>
       <c r="F2" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/1.Mobile/screenshots/Mobile_Android_Gmail_SignUp_KYC_Individual/step53_test_completed_success.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/1.Mobile_Android/screenshots/Mobile_Android_Email_SignUp_KYC_Company/step55_test_completed_success.png</v>
       </c>
     </row>
   </sheetData>

--- a/testNadz/1.Mobile_Android/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_Android.xlsx
+++ b/testNadz/1.Mobile_Android/AutoReg_FBG2.0_Happy_Flow_E2E_Mobile_Android.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Email_SignUp_KYC_Company" sheetId="1" r:id="rId1"/>
+    <sheet name="Gmail_SignUp_KYC_Individual" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -424,22 +424,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Android_SignUp_KYC_Email_Company</v>
+        <v>Android_Gmail_SignUp_KYC_Individual</v>
       </c>
       <c r="B2" t="str">
-        <v>TC004</v>
+        <v>TC002</v>
       </c>
       <c r="C2" t="str">
-        <v>Android_SignUp_Company_Email_KYC_HappyFlow</v>
+        <v>Android_Gmail_Individual_SignUp_KYC_HappyFlow</v>
       </c>
       <c r="D2" t="str">
-        <v>7/16/2025, 1:02:19 PM</v>
+        <v>7/17/2025, 3:19:16 PM</v>
       </c>
       <c r="E2" t="str">
         <v>PASS</v>
       </c>
       <c r="F2" t="str">
-        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/1.Mobile_Android/screenshots/Mobile_Android_Email_SignUp_KYC_Company/step55_test_completed_success.png</v>
+        <v>/Users/adlanelias/Documents/Nadz/VSCode/FarmbytesNadz/testNadz/1.Mobile_Android/screenshots/Mobile_Android_Gmail_SignUp_KYC_Individual/step53_test_completed_success.png</v>
       </c>
     </row>
   </sheetData>
